--- a/medicine/Psychotrope/József_Törley/József_Törley.xlsx
+++ b/medicine/Psychotrope/József_Törley/József_Törley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%B3zsef_T%C3%B6rley</t>
+          <t>József_Törley</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">József Törley (1858-1907) est un négociant hongrois de champagne, à Reims, puis de vin effervescent en Hongrie. Il est célèbre pour avoir créé, hors de la région de Champagne, l'une des marques les plus renommées de vin effervescent : la Maison Törley.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%B3zsef_T%C3%B6rley</t>
+          <t>József_Törley</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Valentin Schmierl (1823-1900), riche propriétaire terrien (la famille possède plus de 1 000 hectares), et de Mária Vojnits de Bajsa[1]. Son père participe à la révolution hongroise de 1848 comme lieutenant, magyarise son nom en Bálint Törlei et suivit Louis Kossuth à Choumla après la défaite. Il y rencontra probablement Jules-Conrad Burchard-Bélaváry, officier hongrois exilé comme lui et futur patron de la Maison de champagne Delbeck dans laquelle son fils József travaillera plus tard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Valentin Schmierl (1823-1900), riche propriétaire terrien (la famille possède plus de 1 000 hectares), et de Mária Vojnits de Bajsa. Son père participe à la révolution hongroise de 1848 comme lieutenant, magyarise son nom en Bálint Törlei et suivit Louis Kossuth à Choumla après la défaite. Il y rencontra probablement Jules-Conrad Burchard-Bélaváry, officier hongrois exilé comme lui et futur patron de la Maison de champagne Delbeck dans laquelle son fils József travaillera plus tard.
 József étudie à l'académie de commerce de Graz, en Autriche. Il y fait la connaissance de Theophile Roederer, fondateur de la Maison Théophile Roederer à Reims en 1864 et lointain cousin (au 5e degré) du célèbre Louis Roederer, qui l'invite à Reims. Törley y devient apprenti auprès des Roederer puis des Delbeck et apprend ainsi la production du champagne. Il installe à Reims sa propre usine de vin de champagne qu'il met en bouteille. Il achète alors le « vin tranquille » à des producteurs locaux et le transforme lui-même en champagne.
 Lors de l'un de ses voyages d'affaire à Budafok, en  Hongrie, Törley se rend compte que les conditions pour la production de vin effervescent y semblent parfaites. Il remarque que les sols de Budafok, plus que n'importe où ailleurs en Europe, sont similaires au massif calcaire existant dans la région de Champagne et nécessaires à l'élaboration, si particulière, du vin de champagne. Désormais fin connaisseur des procès de production, Törley déplace son usine de Reims à Budafok en 1882 et cultive des vignes à Etyek. Il fait creuser de grandes caves dans les collines calcaires de Budafok pour assurer une température uniforme nécessaire à une production de qualité. Ce calcaire extrait entra dans la construction du Parlement hongrois qui fut, à son achèvement en 1904, le plus grand bâtiment jamais construit. Il écrit en 1882 à propos de sa première cuvée hongroise :
 « Avec beaucoup de diligence et de persévérance, j'ai réussi à produire quelque chose de bien supérieure aux vins effervescents connus jusqu'à présent. »
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%B3zsef_T%C3%B6rley</t>
+          <t>József_Törley</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Château Törley
 Mausolée Törley</t>
